--- a/data/sampledata.xlsx
+++ b/data/sampledata.xlsx
@@ -359,7 +359,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -394,7 +394,7 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <v>343</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3">

--- a/data/sampledata.xlsx
+++ b/data/sampledata.xlsx
@@ -359,7 +359,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -394,7 +394,7 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:3">
